--- a/lab2/Comparison_report.xlsx
+++ b/lab2/Comparison_report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Format</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">Pickle (Native)</t>
   </si>
   <si>
+    <t xml:space="preserve">MessagePack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protocol Buffers</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAML</t>
   </si>
 </sst>
 </file>
@@ -79,7 +85,7 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FFA88FAA"/>
@@ -129,12 +135,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -222,7 +222,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,10 +239,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,27 +247,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,7 +278,7 @@
     <cellStyle name="Excel Built-in Title" xfId="20"/>
     <cellStyle name="Excel Built-in Heading 2" xfId="21"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -312,7 +304,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDFE182"/>
+          <fgColor rgb="FFBBD780"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCADB80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -326,49 +325,77 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFDC17C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1D47F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCAB78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAFD37F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFED07F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AC07B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDBF7C"/>
+          <fgColor rgb="FFFCB37A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDBB7B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB84"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7EC57C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE483"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE683"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB2D57F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFDF82"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE884"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7D67F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE082"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,7 +416,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -436,7 +463,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -462,11 +489,20 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Relative comparison of serialization formats in Python</a:t>
+              <a:t>Relative comparison of serialization formats in Python
+Loop - 1000 iterations tested</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.291131207361574"/>
+          <c:y val="0.0183213666749195"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -476,51 +512,19 @@
       </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="25"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="40"/>
-    </c:view3D>
-    <c:floor>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="d9d9d9"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0512295717431079"/>
-          <c:y val="0.149371667936024"/>
-          <c:w val="0.791329425993116"/>
-          <c:h val="0.726009139375476"/>
+          <c:x val="0.0512137077582104"/>
+          <c:y val="0.149385625315603"/>
+          <c:w val="0.791305727431382"/>
+          <c:h val="0.725972058575997"/>
         </c:manualLayout>
       </c:layout>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -529,7 +533,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$G$15:$G$15</c:f>
+              <c:f>Comparison!$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -562,6 +566,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -577,47 +582,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$B$16:$B$20</c:f>
+              <c:f>Comparison!$B$16:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Pickle (Native)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Protocol Buffers</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>JSON</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Apache Avro</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>XML</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YAML</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$G$16:$G$20</c:f>
+              <c:f>Comparison!$G$16:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.40778097982709</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.23198847262248</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.54755043227666</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.27089337175793</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.73198847262248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.52881844380403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,7 +645,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$J$15:$J$15</c:f>
+              <c:f>Comparison!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,6 +675,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -673,65 +691,85 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$B$16:$B$20</c:f>
+              <c:f>Comparison!$B$16:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Pickle (Native)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Protocol Buffers</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>JSON</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Apache Avro</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>XML</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YAML</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$J$16:$J$20</c:f>
+              <c:f>Comparison!$J$16:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04821814076743</c:v>
+                  <c:v>1.40058437458705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.86704687482819</c:v>
+                  <c:v>1.21602674223403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.61241858572827</c:v>
+                  <c:v>3.13041733350953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.680254954496</c:v>
+                  <c:v>4.92457456649096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.5512844984118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>770.99661806667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:shape val="box"/>
-        <c:axId val="63469541"/>
-        <c:axId val="72407797"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:overlap val="0"/>
+        <c:axId val="98214584"/>
+        <c:axId val="75255797"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="63469541"/>
+        <c:axId val="98214584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -758,7 +796,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72407797"/>
+        <c:crossAx val="75255797"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -766,7 +804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72407797"/>
+        <c:axId val="75255797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +820,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -805,23 +843,19 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63469541"/>
+        <c:crossAx val="98214584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.830274671194947"/>
-          <c:y val="0.363388164045457"/>
-          <c:w val="0.159423131002855"/>
-          <c:h val="0.404324995325452"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -863,15 +897,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1136880</xdr:colOff>
+      <xdr:colOff>1116360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>807120</xdr:rowOff>
+      <xdr:rowOff>856440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -879,8 +913,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="254520" y="34920"/>
-        <a:ext cx="11343960" cy="4277520"/>
+        <a:off x="234360" y="0"/>
+        <a:ext cx="11345040" cy="4361760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -894,8 +928,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B15:J20" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B15:J20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B15:J22" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B15:J22"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Format"/>
     <tableColumn id="2" name="Size, bytes"/>
@@ -916,10 +950,10 @@
     <tabColor rgb="FF664F68"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="27" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -928,10 +962,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="2.83"/>
@@ -941,403 +975,320 @@
     <row r="1" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="15" s="4" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="s">
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="7" t="n">
         <v>977</v>
       </c>
-      <c r="D16" s="10" t="n">
-        <v>0.021673</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <v>0.0328936</v>
-      </c>
-      <c r="F16" s="11" t="n">
+      <c r="D16" s="8" t="n">
+        <v>0.00392482</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>0.00629123</v>
+      </c>
+      <c r="F16" s="9" t="n">
         <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
-        <v>0.0545666</v>
-      </c>
-      <c r="G16" s="12" t="n">
+        <v>0.01021605</v>
+      </c>
+      <c r="G16" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
         <v>1.40778097982709</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
         <v>1</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
-        <v>2.288951052844</v>
-      </c>
-      <c r="J16" s="12" t="n">
+        <v>2.09177749700758</v>
+      </c>
+      <c r="J16" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="7" t="n">
+        <v>855</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>0.00487978</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>0.00942866</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
+        <v>0.01430844</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
+        <v>1.23198847262248</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
+        <v>1.24331306913438</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
+        <v>3.13494480649022</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
+        <v>1.40058437458705</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>694</v>
       </c>
-      <c r="D17" s="10" t="n">
-        <v>0.0428271</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>0.0143706</v>
-      </c>
-      <c r="F17" s="11" t="n">
+      <c r="D18" s="8" t="n">
+        <v>0.00941539</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>0.0030076</v>
+      </c>
+      <c r="F18" s="9" t="n">
         <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
-        <v>0.0571977</v>
-      </c>
-      <c r="G17" s="12" t="n">
+        <v>0.01242299</v>
+      </c>
+      <c r="G18" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H18" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
-        <v>1.97605776772943</v>
-      </c>
-      <c r="I17" s="12" t="n">
+        <v>2.3989354925831</v>
+      </c>
+      <c r="I18" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
         <v>1</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J18" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
-        <v>1.04821814076743</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="n">
+        <v>1.21602674223403</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="n">
         <v>1074</v>
       </c>
-      <c r="D18" s="10" t="n">
-        <v>0.0847351</v>
-      </c>
-      <c r="E18" s="11" t="n">
-        <v>0.0717099</v>
-      </c>
-      <c r="F18" s="11" t="n">
+      <c r="D19" s="8" t="n">
+        <v>0.0175857</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0.0143948</v>
+      </c>
+      <c r="F19" s="9" t="n">
         <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
-        <v>0.156445</v>
-      </c>
-      <c r="G18" s="12" t="n">
+        <v>0.0319805</v>
+      </c>
+      <c r="G19" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
         <v>1.54755043227666</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H19" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
-        <v>3.90970793152771</v>
-      </c>
-      <c r="I18" s="12" t="n">
+        <v>4.48063860253464</v>
+      </c>
+      <c r="I19" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
-        <v>4.99004216942925</v>
-      </c>
-      <c r="J18" s="12" t="n">
+        <v>4.7861417741721</v>
+      </c>
+      <c r="J19" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
-        <v>2.86704687482819</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9" t="n">
+        <v>3.13041733350953</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="n">
         <v>882</v>
       </c>
-      <c r="D19" s="10" t="n">
-        <v>0.106061</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>0.145623</v>
-      </c>
-      <c r="F19" s="11" t="n">
+      <c r="D20" s="8" t="n">
+        <v>0.0212983</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0.0290114</v>
+      </c>
+      <c r="F20" s="9" t="n">
         <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
-        <v>0.251684</v>
-      </c>
-      <c r="G19" s="12" t="n">
+        <v>0.0503097</v>
+      </c>
+      <c r="G20" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
         <v>1.27089337175793</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H20" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
-        <v>4.89369261292853</v>
-      </c>
-      <c r="I19" s="12" t="n">
+        <v>5.42656733302419</v>
+      </c>
+      <c r="I20" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
-        <v>10.1333973529289</v>
-      </c>
-      <c r="J19" s="12" t="n">
+        <v>9.64603005718846</v>
+      </c>
+      <c r="J20" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
-        <v>4.61241858572827</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9" t="n">
+        <v>4.92457456649096</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="n">
         <v>1202</v>
       </c>
-      <c r="D20" s="10" t="n">
-        <v>1.0198</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <v>1.09085</v>
-      </c>
-      <c r="F20" s="11" t="n">
+      <c r="D21" s="8" t="n">
+        <v>0.209411</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>0.215079</v>
+      </c>
+      <c r="F21" s="9" t="n">
         <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
-        <v>2.11065</v>
-      </c>
-      <c r="G20" s="12" t="n">
+        <v>0.42449</v>
+      </c>
+      <c r="G21" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
         <v>1.73198847262248</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H21" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
-        <v>47.0539380796383</v>
-      </c>
-      <c r="I20" s="12" t="n">
+        <v>53.3555678986552</v>
+      </c>
+      <c r="I21" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
-        <v>75.9084519783447</v>
-      </c>
-      <c r="J20" s="12" t="n">
+        <v>71.5118366804096</v>
+      </c>
+      <c r="J21" s="10" t="n">
         <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
-        <v>38.680254954496</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>41.5512844984118</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>3.11964</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>4.7569</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <f aca="false">SUM(Таблица1[[#This Row],[Serialization time, sec]:[Deserialyze time, sec]])</f>
+        <v>7.87654</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Size, bytes]]/MIN(Таблица1[Size, bytes])</f>
+        <v>1.52881844380403</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Serialization time, sec]]/MIN(Таблица1[Serialization time, sec])</f>
+        <v>794.849190536127</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Deserialyze time, sec]]/MIN(Таблица1[Deserialyze time, sec])</f>
+        <v>1581.62654608326</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <f aca="false">Таблица1[[#This Row],[Sum of serialization and deserialization time]]/MIN(Таблица1[Sum of serialization and deserialization time])</f>
+        <v>770.99661806667</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="B:J"/>
-  <conditionalFormatting sqref="G16:G19">
+  <conditionalFormatting sqref="G16:G19 G21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1349,7 +1300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H19">
+  <conditionalFormatting sqref="H16:H19 H21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1361,7 +1312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I19">
+  <conditionalFormatting sqref="I16:I19 I21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1373,7 +1324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J19">
+  <conditionalFormatting sqref="J16:J19 J21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1385,7 +1336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1397,7 +1348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H20:H21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1409,7 +1360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I20:I21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1421,8 +1372,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J20:J21">
     <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
